--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il18-Il1rapl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,43 +528,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.053021666666666</v>
+        <v>1.101236</v>
       </c>
       <c r="H2">
-        <v>21.159065</v>
+        <v>3.303708</v>
       </c>
       <c r="I2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="J2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="N2">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2565489611105555</v>
+        <v>0.008817596652</v>
       </c>
       <c r="R2">
-        <v>2.308940649995</v>
+        <v>0.079358369868</v>
       </c>
       <c r="S2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
       <c r="T2">
-        <v>0.08011112358180575</v>
+        <v>0.01694257912446582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,28 +605,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.63076933333333</v>
+        <v>7.053021666666666</v>
       </c>
       <c r="H3">
-        <v>106.892308</v>
+        <v>21.159065</v>
       </c>
       <c r="I3">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="J3">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="N3">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.296045480653778</v>
+        <v>0.056473544485</v>
       </c>
       <c r="R3">
-        <v>11.664409325884</v>
+        <v>0.508261900365</v>
       </c>
       <c r="S3">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
       <c r="T3">
-        <v>0.4047089460773642</v>
+        <v>0.108511143527883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.661325</v>
+        <v>37.05201233333333</v>
       </c>
       <c r="H4">
-        <v>10.983975</v>
+        <v>111.156037</v>
       </c>
       <c r="I4">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="J4">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="N4">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1331782559916667</v>
+        <v>0.296675462753</v>
       </c>
       <c r="R4">
-        <v>1.198604303925</v>
+        <v>2.670079164777</v>
       </c>
       <c r="S4">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
       <c r="T4">
-        <v>0.04158683659436108</v>
+        <v>0.5700473383345471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,43 +714,43 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.048222000000001</v>
+        <v>0.258594</v>
       </c>
       <c r="H5">
-        <v>24.144666</v>
+        <v>0.775782</v>
       </c>
       <c r="I5">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="J5">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03637433333333333</v>
+        <v>0.008007</v>
       </c>
       <c r="N5">
-        <v>0.109123</v>
+        <v>0.024021</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2927487097686667</v>
+        <v>0.002070562158</v>
       </c>
       <c r="R5">
-        <v>2.634738387918</v>
+        <v>0.018635059422</v>
       </c>
       <c r="S5">
-        <v>0.09141501865831141</v>
+        <v>0.003978483545863116</v>
       </c>
       <c r="T5">
-        <v>0.09141501865831139</v>
+        <v>0.003978483545863116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +791,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.64714066666667</v>
+        <v>7.976870333333333</v>
       </c>
       <c r="H6">
-        <v>100.941422</v>
+        <v>23.930611</v>
       </c>
       <c r="I6">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="J6">
-        <v>0.3821780750881575</v>
+        <v>0.1227246083383616</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.008007</v>
+      </c>
+      <c r="N6">
+        <v>0.024021</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.06387080075900001</v>
+      </c>
+      <c r="R6">
+        <v>0.574837206831</v>
+      </c>
+      <c r="S6">
+        <v>0.1227246083383616</v>
+      </c>
+      <c r="T6">
+        <v>0.1227246083383616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.03637433333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.109123</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.223892310322889</v>
-      </c>
-      <c r="R6">
-        <v>11.015030792906</v>
-      </c>
-      <c r="S6">
-        <v>0.3821780750881575</v>
-      </c>
-      <c r="T6">
-        <v>0.3821780750881575</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.556398</v>
+      </c>
+      <c r="H7">
+        <v>34.669194</v>
+      </c>
+      <c r="I7">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="J7">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.008007</v>
+      </c>
+      <c r="N7">
+        <v>0.024021</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0.092532078786</v>
+      </c>
+      <c r="R7">
+        <v>0.8327887090739999</v>
+      </c>
+      <c r="S7">
+        <v>0.1777958471288793</v>
+      </c>
+      <c r="T7">
+        <v>0.1777958471288793</v>
       </c>
     </row>
   </sheetData>
